--- a/策划/任务规划/IG_02项目开发计划表.xlsx
+++ b/策划/任务规划/IG_02项目开发计划表.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_IG\IG02\IndieGame02\策划\任务规划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF049B97-2DA2-445F-BF9A-AB6CB07BABFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFC02BE-76C8-4280-9CB7-D33C6280FA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="里程计划" sheetId="1" r:id="rId1"/>
-    <sheet name="项目排期" sheetId="2" r:id="rId2"/>
-    <sheet name="Bug记录表" sheetId="3" r:id="rId3"/>
+    <sheet name="头脑风暴" sheetId="4" r:id="rId2"/>
+    <sheet name="任务表" sheetId="2" r:id="rId3"/>
+    <sheet name="问题记录表" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">问题记录表!$D$1:$D$18</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
   <si>
     <t>创意</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,10 +158,6 @@
   </si>
   <si>
     <t>题目分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -435,6 +435,157 @@
   </si>
   <si>
     <t>IG_02项目开发里程计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>里程计划中预制作阶段的部分描述不太清晰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚点同步信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁正在关注这个问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未处理</t>
+  </si>
+  <si>
+    <t>严重程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备阶段</t>
+  </si>
+  <si>
+    <t>已处理</t>
+  </si>
+  <si>
+    <t>基本环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程计划梳理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>开发者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试一下运行时timeline能不能暂停住特效、动画等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有必要准备一个文本剧情系统，最好能走配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用shader准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想法收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作一个声音控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理中</t>
+  </si>
+  <si>
+    <t>抛弃</t>
+  </si>
+  <si>
+    <t>挂起</t>
+  </si>
+  <si>
+    <t>想法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发难度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+  </si>
+  <si>
+    <t>Mora</t>
+  </si>
+  <si>
+    <t>方丞</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Kidx</t>
+  </si>
+  <si>
+    <t>切题程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已暂停</t>
+  </si>
+  <si>
+    <t>走一遍手机端、PC端打包流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +593,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,8 +635,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,6 +697,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -877,7 +1064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -999,12 +1186,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1033,18 +1214,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,6 +1249,51 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1089,38 +1303,222 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1398,11 +1796,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
     <col min="2" max="2" width="23.109375" style="3" customWidth="1"/>
@@ -1412,103 +1810,106 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
+    <row r="1" spans="1:6">
+      <c r="A1" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="82.8">
+      <c r="A4" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>88</v>
+      <c r="D4" s="54" t="s">
+        <v>87</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="61"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27.6">
+      <c r="A5" s="66"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="61"/>
+      <c r="F5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="66"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="62"/>
+    <row r="7" spans="1:6" ht="27.6">
+      <c r="A7" s="66"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="59"/>
+    <row r="8" spans="1:6" ht="82.8">
+      <c r="A8" s="66"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27.6">
+      <c r="A9" s="66"/>
+      <c r="B9" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -1518,10 +1919,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
+    <row r="10" spans="1:6" ht="27.6">
+      <c r="A10" s="66"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="11" t="s">
         <v>27</v>
       </c>
@@ -1529,9 +1930,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="59"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="66"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="10" t="s">
         <v>13</v>
       </c>
@@ -1542,9 +1943,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="63" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="66"/>
+      <c r="B12" s="57" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -1557,10 +1958,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="63" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="66"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="57" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -1570,10 +1971,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
+    <row r="14" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A14" s="67"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="12" t="s">
         <v>17</v>
       </c>
@@ -1581,102 +1982,102 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="49" t="s">
+    <row r="15" spans="1:6" ht="41.4">
+      <c r="A15" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="47" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="60"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="60"/>
+      <c r="B17" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="60"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E18" s="34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="33" t="s">
+    <row r="19" spans="1:5" ht="27.6">
+      <c r="A19" s="60"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E19" s="34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="33" t="s">
+    <row r="20" spans="1:5" ht="69">
+      <c r="A20" s="60"/>
+      <c r="B20" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="D20" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="69" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="35" t="s">
+    <row r="21" spans="1:5" ht="27.6">
+      <c r="A21" s="60"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="35" t="s">
+      <c r="D21" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>37</v>
-      </c>
       <c r="E21" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67"/>
-      <c r="B22" s="53"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A22" s="61"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="36" t="s">
         <v>3</v>
       </c>
@@ -1684,185 +2085,185 @@
         <v>23</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="54" t="s">
-        <v>74</v>
+      <c r="B23" s="74" t="s">
+        <v>73</v>
       </c>
       <c r="C23" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="78"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D24" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E24" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="78"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A26" s="79"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="70"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="77" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="63"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="63"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="63"/>
+      <c r="B30" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="23" t="s">
+      <c r="C30" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="63"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="26" t="s">
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="63"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="25" t="s">
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="63"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="27"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="25" t="s">
-        <v>58</v>
-      </c>
       <c r="D33" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
-      <c r="B34" s="79"/>
+    <row r="34" spans="1:5">
+      <c r="A34" s="63"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
-      <c r="B35" s="41" t="s">
-        <v>59</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="63"/>
+      <c r="B35" s="71" t="s">
+        <v>58</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="27"/>
     </row>
-    <row r="36" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="73"/>
-      <c r="B36" s="42"/>
+    <row r="36" spans="1:5" ht="14.4" thickBot="1">
+      <c r="A36" s="64"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="30"/>
@@ -1875,13 +2276,14 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B26"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="B9:B11"/>
@@ -1889,7 +2291,6 @@
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1897,31 +2298,924 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4E7137-21B9-4D23-9B97-77AC87DEE616}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95133354-8EAD-4DB3-A685-B57D1346171C}">
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="47.21875" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="81" customFormat="1">
+      <c r="A1" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+    </row>
+    <row r="2" spans="1:14" s="81" customFormat="1">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="D1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A3:A21">
+    <cfRule type="expression" dxfId="19" priority="6">
+      <formula>$D3="已忽略"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="7">
+      <formula>$D3="已暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="8">
+      <formula>$D3="未开始"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="9">
+      <formula>$D3="进行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="10">
+      <formula>$D3="已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:N2">
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>$D2="已忽略"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="2">
+      <formula>$D2="已暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="3">
+      <formula>$D2="未开始"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>$D2="进行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>$D2="已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:N2 A3:A21" xr:uid="{FE05757E-5F93-4FB5-8C95-C2BE794A2B15}">
+      <formula1>"Jim,Kidx,Lee,方丞,Mora,。"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4E7137-21B9-4D23-9B97-77AC87DEE616}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="80" customWidth="1"/>
+    <col min="2" max="2" width="60.44140625" style="91" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="86" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" style="91" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="80" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A1" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A2" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="90"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A3" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="90"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A4" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="83"/>
+      <c r="D4" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="90"/>
+    </row>
+    <row r="5" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A5" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="83"/>
+      <c r="D5" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="90"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A6" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="83"/>
+      <c r="D6" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="90"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A7" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="90"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A8" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="83"/>
+      <c r="D8" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="90"/>
+    </row>
+    <row r="9" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A9" s="83"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="90"/>
+    </row>
+    <row r="10" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A10" s="83"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="90"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A11" s="83"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="90"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A12" s="83"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="90"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A13" s="83"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="90"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A14" s="83"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="90"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A15" s="83"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="90"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A16" s="83"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="90"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A17" s="83"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="90"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A18" s="83"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="90"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.6" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:E1048576">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>$D2="已忽略"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>$D2="已暂停"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$D2="未开始"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$D2="进行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$D2="已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C18" xr:uid="{C3854C7C-8706-4ECE-855B-D4075D2F20A4}">
+      <formula1>"Jim,Kidx,Lee,方丞,Mora,。"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19" xr:uid="{C556C198-9CA5-46F3-8C3C-FD89AF465A1A}">
+      <formula1>"S,A,B,C"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A18" xr:uid="{EC30EF38-8E6C-41B7-AF98-E496CB587078}">
+      <formula1>"准备阶段,创作阶段,预制作阶段,开发a阶段,开发β阶段"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{542D2324-BCE3-4BBD-88DD-FCD8E2434885}">
+      <formula1>"未开始,进行中,已完成,已暂停,已忽略"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{8B46EFC5-B9CC-440B-B1F6-8BAF22708A75}">
+      <formula1>"准备阶段,构思阶段,预制作阶段,开发a阶段,开发β阶段"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D20CE6-FEBB-4419-9FDC-40E98C29FAED}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="24.6" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.44140625" style="91" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="86" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" style="91" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="80" customFormat="1" ht="24.6" customHeight="1">
+      <c r="A1" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A2" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A3" s="83"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="90"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A4" s="83"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="90"/>
+    </row>
+    <row r="5" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A5" s="83"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="90"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A6" s="83"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="90"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A7" s="83"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="90"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A8" s="83"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="90"/>
+    </row>
+    <row r="9" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A9" s="83"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="90"/>
+    </row>
+    <row r="10" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A10" s="83"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="90"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A11" s="83"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="90"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A12" s="83"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="90"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A13" s="83"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="90"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A14" s="83"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="90"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A15" s="83"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="90"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A16" s="83"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="90"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A17" s="83"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="90"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.6" customHeight="1">
+      <c r="A18" s="83"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="90"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="D1:D18" xr:uid="{C3D20CE6-FEBB-4419-9FDC-40E98C29FAED}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$D1="抛弃"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$D1="挂起"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$D1="处理中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$D1="已处理"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$D1="未处理"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C18" xr:uid="{223009E5-FDB8-4B2F-A0C8-EFF641ED91AA}">
+      <formula1>"Jim,Kidx,Lee,方丞,Mora,。"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A19" xr:uid="{E2EC62EA-C5A6-40AF-9C1D-ADF2A167BF89}">
+      <formula1>"S,A,B,C"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{21768CD7-1827-423B-96CB-157B38A25C90}">
+      <formula1>"未处理,处理中,已处理,抛弃,挂起"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>